--- a/data/album.xlsx
+++ b/data/album.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/Duckku_be/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED1AF50-E502-8049-908E-DA8A11E08153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA09AD47-3284-B84E-8E38-924E9AD56B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
   </bookViews>
   <sheets>
     <sheet name="Album" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="218">
   <si>
     <t>소녀시대</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>응모권 포함 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응모권 포함 X 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>발매월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,27 +109,827 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수록곡목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응모권포함가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응모권미포함가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 아, 아,아,앙,앙,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킼,킼,킼,ㅋㅋ,3ㅣㅇ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅁㄹ.ㅁㄴㅇ,ㄹㅇ,ㄹㄹㅇ,ㅇㄹ</t>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackPink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(G)I-DLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONSTA X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세븐틴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Twice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forever 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seventeen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky Like That</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You Better Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mood Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feel My Rhythm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rainbow Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beg For Me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAMBOLEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good,Bad,Ugly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비불(Illusion)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life's Too Short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICU(쉬어가도 돼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life's Too Short (english ver.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro : Boy Meets Evil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피 땀 눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규 2집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQUARE TOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JYP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타쉽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feel Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOVE DIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'M THE TREND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃갈피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fatal Love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불장난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘파람&lt;Acoustic Ver.&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 2집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 9집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 3집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 1집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리메이크 1집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규 3집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Loud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trick It</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love Foolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROYAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i'M THE TREND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 옛날이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐에로는 우릴 보고 웃지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑이 지나가면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너의 의미(feat. 김창완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름밤의 꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿍따리 샤바라(feat. 클론)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love Killa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thriller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guess Who</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nobody Else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEASTMODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대동단결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 (Happiness)</t>
+  </si>
+  <si>
+    <t>미니 6집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queendom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knock On Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better Be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pushin' N Pullin'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시, 여름(Hello, Suset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Level</t>
+  </si>
+  <si>
+    <t>Next Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화양연화 pt2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 4집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro: Never Mind</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Whalien 52</t>
+  </si>
+  <si>
+    <t>Ma City</t>
+  </si>
+  <si>
+    <t>뱁새</t>
+  </si>
+  <si>
+    <t>Skit: One Night in a Strange City</t>
+  </si>
+  <si>
+    <t>3;57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUTTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 싱글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>An Ode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓말을 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 : Fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me hear you say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back it up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darl+ing</t>
+  </si>
+  <si>
+    <t>How You Like That</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선공개 싱글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루에 세 번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONLY 너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLD ME TIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EYE EYE EYES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOMEONE LIKE ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taste of Love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 12집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcohol-Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scandal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conversation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baby Blue Love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take It</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한(寒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화(火花)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where is love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAHLIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I NEVER DIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정규 1집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOMBOY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말리지 마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAIN DIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALREADY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLAROID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESCAPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love Poem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 5집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 바깥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자장가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love poem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LILAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규 5집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라일락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 안녕 봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celebrity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌림노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 컵(Empty Cup)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHAPE of LOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 11집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burning Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breathe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wildfire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lion Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You Think</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어떤 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowGirls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk Talk </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Butter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Hotter Remix)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Butter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Sweeter Remix)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Butter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Cooler Remix)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Butter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Instrumental)</t>
+    </r>
+  </si>
+  <si>
+    <t>'FOLLOW' : FIND YOU </t>
+  </si>
+  <si>
+    <t>미니 7집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsta Truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burn it up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 앨범</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +937,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +979,57 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF373A3C"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,30 +1048,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,359 +1459,2153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DD0742-5A26-3F44-A099-EABDA47F10C9}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="19">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="15"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="13">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17">
+        <f>I3+3000</f>
+        <v>19300</v>
+      </c>
+      <c r="I3" s="17">
+        <v>16300</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="15">
+        <v>0.14652777777777778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2015</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17">
+        <f>SUM(I4,3000)</f>
+        <v>25300</v>
+      </c>
+      <c r="I4" s="17">
+        <v>22300</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W4" s="16">
+        <v>0.14097222222222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G5" s="13">
+        <v>3</v>
+      </c>
+      <c r="H5" s="17">
+        <f>SUM(I5,3000)</f>
+        <v>21600</v>
+      </c>
+      <c r="I5" s="17">
+        <v>18600</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2014</v>
+      </c>
+      <c r="G6" s="13">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17">
+        <f>SUM(I6,3000)</f>
+        <v>19300</v>
+      </c>
+      <c r="I6" s="17">
+        <v>16300</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="13">
+        <v>8</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" ref="H7:H31" si="0">SUM(I7,3000)</f>
+        <v>13400</v>
+      </c>
+      <c r="I7" s="17">
+        <v>10400</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G8" s="13">
+        <v>7</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+      <c r="I8" s="17">
+        <v>18600</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="13">
+        <v>5</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>22300</v>
+      </c>
+      <c r="I9" s="17">
+        <v>19300</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2016</v>
+      </c>
+      <c r="G10" s="13">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>22300</v>
+      </c>
+      <c r="I10" s="17">
+        <v>19300</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2015</v>
+      </c>
+      <c r="G11" s="13">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I11" s="18">
+        <v>17800</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="15">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0.16874999999999998</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="13">
+        <v>5</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>22300</v>
+      </c>
+      <c r="I12" s="19">
+        <v>19300</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="13">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="I13" s="19">
+        <v>12600</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="R13" s="13">
+        <v>247</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G14" s="13">
+        <v>8</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>14900</v>
+      </c>
+      <c r="I14" s="4">
+        <v>11900</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="13">
+        <v>4</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I15" s="4">
+        <v>17800</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2016</v>
+      </c>
+      <c r="G16" s="13">
+        <v>11</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>18600</v>
+      </c>
+      <c r="I16" s="4">
+        <v>15600</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="13">
+        <v>6</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>19300</v>
+      </c>
+      <c r="I17" s="4">
+        <v>16300</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G18" s="13">
+        <v>9</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>19300</v>
+      </c>
+      <c r="I18" s="4">
+        <v>16300</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="S18" s="16">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2017</v>
+      </c>
+      <c r="G19" s="13">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>28200</v>
+      </c>
+      <c r="I19" s="4">
+        <v>25200</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0.14305555555555557</v>
+      </c>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="13">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I20" s="4">
+        <v>17800</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="13">
         <v>2022</v>
       </c>
-      <c r="F2" s="2">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>23423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="G21" s="13">
+        <v>4</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>17900</v>
+      </c>
+      <c r="I21" s="4">
+        <v>14900</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G22" s="13">
+        <v>12</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="0"/>
+        <v>17900</v>
+      </c>
+      <c r="I22" s="4">
+        <v>14900</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G23" s="13">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="H23" s="17">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+      <c r="I23" s="4">
+        <v>26700</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G24" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H24" s="17">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+      <c r="I24" s="4">
+        <v>14100</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G25" s="13">
+        <v>3</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>19300</v>
+      </c>
+      <c r="I25" s="4">
+        <v>16300</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" s="16">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0.11944444444444445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2014</v>
+      </c>
+      <c r="G26" s="13">
+        <v>5</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+      <c r="I26" s="4">
+        <v>14100</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0.15902777777777777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G27" s="13">
+        <v>11</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I27" s="4">
+        <v>17800</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G28" s="13">
+        <v>3</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I28" s="22">
+        <v>17800</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="W28" s="16">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G29" s="13">
+        <v>11</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="0"/>
+        <v>19300</v>
+      </c>
+      <c r="I29" s="22">
+        <v>16300</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="W29" s="15">
+        <v>0.1277777777777778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G30" s="13">
+        <v>4</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="0"/>
+        <v>24500</v>
+      </c>
+      <c r="I30" s="22">
+        <v>21500</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="O30" s="16">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G31" s="13">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>345345</v>
-      </c>
-      <c r="I3" s="2">
-        <v>346364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2">
-        <v>123123</v>
-      </c>
-      <c r="I4" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="C39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="C40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="C41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="C42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="C43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="C44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="H31" s="17">
+        <f t="shared" si="0"/>
+        <v>21300</v>
+      </c>
+      <c r="I31" s="20">
+        <v>18300</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W31" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="2"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="I44" s="10"/>
+      <c r="M44" s="17"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="I45" s="11"/>
+      <c r="M45" s="17"/>
+      <c r="O45" s="23"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="I46" s="9"/>
+      <c r="M46" s="17"/>
+      <c r="O46" s="23"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="I47" s="7"/>
+      <c r="M47" s="17"/>
+      <c r="O47" s="23"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="I48" s="7"/>
+      <c r="M48" s="17"/>
+      <c r="O48" s="23"/>
+    </row>
+    <row r="49" spans="9:15">
+      <c r="I49" s="10"/>
+      <c r="M49" s="17"/>
+      <c r="O49" s="23"/>
+    </row>
+    <row r="50" spans="9:15">
+      <c r="I50" s="11"/>
+      <c r="M50" s="17"/>
+      <c r="O50" s="23"/>
+    </row>
+    <row r="51" spans="9:15">
+      <c r="M51" s="18"/>
+      <c r="O51" s="23"/>
+    </row>
+    <row r="52" spans="9:15">
+      <c r="M52" s="19"/>
+      <c r="O52" s="23"/>
+    </row>
+    <row r="53" spans="9:15">
+      <c r="M53" s="19"/>
+      <c r="O53" s="23"/>
+    </row>
+    <row r="54" spans="9:15">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="9:15">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="9:15">
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="9:15">
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="9:15">
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="9:15">
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="9:15">
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="9:15">
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="9:15">
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="9:15">
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="9:15">
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="13:15">
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="13:15">
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="13:15">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="13:15">
+      <c r="M68" s="22"/>
+      <c r="O68" s="23"/>
+    </row>
+    <row r="69" spans="13:15">
+      <c r="M69" s="22"/>
+      <c r="O69" s="23"/>
+    </row>
+    <row r="70" spans="13:15">
+      <c r="M70" s="22"/>
+      <c r="O70" s="23"/>
+    </row>
+    <row r="71" spans="13:15">
+      <c r="M71" s="20"/>
+      <c r="O71" s="23"/>
+    </row>
+    <row r="72" spans="13:15">
+      <c r="M72" s="23"/>
+      <c r="O72" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" tooltip="행복 (Happiness)" display="https://namu.wiki/w/%ED%96%89%EB%B3%B5 (Happiness)" xr:uid="{761B7EAC-1141-4052-A12E-D487DAF96A95}"/>
+    <hyperlink ref="J11" r:id="rId2" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+intro:+never+mind&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw08wz8rLis_O0RLOTrfRzS4szk_UTc5JKc62K8_PSixexKr7esPJtc8ubtp7XrS2vu1coZOaVFOVbKeSllqUWKeRm5qUAAEVk2rpbAAAA&amp;sa=X&amp;ved=2ahUKEwi1sMa89c_5AhXNUN4KHULkDSkQri56BAhOEAM" xr:uid="{298114B5-178F-4267-B575-E124DFFCD972}"/>
+    <hyperlink ref="L11" r:id="rId3" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+run&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0w0rDbJMzQu1RLOTrfRzS4szk_UTc5JKc62K8_PSixexCr_esPJtc8ubtp7XrS2vu1coFJXmAQBqsopLTQAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAY" xr:uid="{A2B30CD4-636A-4EDE-A96C-693BC3BE18AA}"/>
+    <hyperlink ref="M11" r:id="rId4" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+run&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0w0rDbJMzQu1RLOTrfRzS4szk_UTc5JKc62K8_PSixexCr_esPJtc8ubtp7XrS2vu1coFJXmAQBqsopLTQAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAY" xr:uid="{8014445D-0704-47C4-81AB-8EA9D387FBEE}"/>
+    <hyperlink ref="N11" r:id="rId5" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+butterfly&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNjZMzDJK1RLOTrfRzS4szk_UTc5JKc62K8_PSixexSr7esPJtc8ubtp7XrS2vu1coJJWWlKQWpeVUAgCyhkaMUwAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAk" xr:uid="{40F9F350-45BD-4DB7-80B1-9F531BEE76D6}"/>
+    <hyperlink ref="O11" r:id="rId6" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+butterfly&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNjZMzDJK1RLOTrfRzS4szk_UTc5JKc62K8_PSixexSr7esPJtc8ubtp7XrS2vu1coJJWWlKQWpeVUAgCyhkaMUwAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAk" xr:uid="{03720614-8AC5-44FB-A15E-00E55E88C512}"/>
+    <hyperlink ref="P11" r:id="rId7" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+whalien+52&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNTQozqlK0RLOTrfRzS4szk_UTc5JKc62K8_PSixexSr3esPJtc8ubtp7XrS2vu1colGck5mSm5imYGgEAVpUSg1QAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAw" xr:uid="{A5111762-60B9-44F3-821E-F4E52C8F3433}"/>
+    <hyperlink ref="Q11" r:id="rId8" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+whalien+52&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNTQozqlK0RLOTrfRzS4szk_UTc5JKc62K8_PSixexSr3esPJtc8ubtp7XrS2vu1colGck5mSm5imYGgEAVpUSg1QAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAw" xr:uid="{33BD41CE-DB75-47EF-B437-BA00FD1B84C0}"/>
+    <hyperlink ref="R11" r:id="rId9" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+ma+city&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw08yzLLPLyzK0RLOTrfRzS4szk_UTc5JKc62K8_PSixexir_esPJtc8ubtp7XrS2vu1co5CYqJGeWVAIAmABro1EAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEA8" xr:uid="{8B36D6FC-D82F-4C20-8113-80A1B06B99E4}"/>
+    <hyperlink ref="S11" r:id="rId10" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+ma+city&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw08yzLLPLyzK0RLOTrfRzS4szk_UTc5JKc62K8_PSixexir_esPJtc8ubtp7XrS2vu1co5CYqJGeWVAIAmABro1EAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEA8" xr:uid="{85DD2E93-B840-4C4A-B121-1D8BCBCFB654}"/>
+    <hyperlink ref="T11" r:id="rId11" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+%EB%B1%81%EC%83%88&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0y0Li0syLOK1RLOTrfRzS4szk_UTc5JKc62K8_PSixexir3esPJtc8ubtp7XrS2vu1covN7Y-Ka5AwD8mYeqUAAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEBI" xr:uid="{A0899F8C-D128-40F1-8595-1797D9DBF676}"/>
+    <hyperlink ref="U11" r:id="rId12" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+%EB%B1%81%EC%83%88&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0y0Li0syLOK1RLOTrfRzS4szk_UTc5JKc62K8_PSixexir3esPJtc8ubtp7XrS2vu1covN7Y-Ka5AwD8mYeqUAAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEBI" xr:uid="{4E1FE392-B3B6-42CB-915D-4B762DDE5B27}"/>
+    <hyperlink ref="V11" r:id="rId13" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+skit:+one+night+in+a+strange+city&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNTQyyTUu0RLOTrfRzS4szk_UTc5JKc62K8_PSixexGr7esPJtc8ubtp7XrS2vu1coFGdnllgp5OelKuRlpmeUKGTmKSQqFJcUJealpyokZ5ZUAgBdi_7bawAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEBU" xr:uid="{4459C905-30DD-4BE4-8200-4AE3CD1C9BD9}"/>
+    <hyperlink ref="W11" r:id="rId14" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+skit:+one+night+in+a+strange+city&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNTQyyTUu0RLOTrfRzS4szk_UTc5JKc62K8_PSixexGr7esPJtc8ubtp7XrS2vu1coFGdnllgp5OelKuRlpmeUKGTmKSQqFJcUJealpyokZ5ZUAgBdi_7bawAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEBU" xr:uid="{21A987F4-0B3D-4541-B5E3-DFFA806CD74E}"/>
+    <hyperlink ref="J15" r:id="rId15" location="s-2.1" tooltip="Darl+ing" display="https://namu.wiki/w/Darl%2Bing - s-2.1" xr:uid="{52C36555-3618-4CB2-8412-E78858AD3F10}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/album.xlsx
+++ b/data/album.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA09AD47-3284-B84E-8E38-924E9AD56B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7304F68A-9E47-F941-AF00-926CB5AF40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="225">
   <si>
     <t>소녀시대</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수록곡1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
   </si>
   <si>
     <t>수록곡7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재생시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -930,6 +922,42 @@
   </si>
   <si>
     <t>이벤트 앨범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멋쟁이사자처럼 인하대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃닫고입올려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1462,7 +1490,7 @@
   <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -1503,46 +1531,46 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="W1" s="3" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -1553,27 +1581,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="13"/>
+        <v>215</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G2" s="13">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13">
+        <v>220817</v>
+      </c>
+      <c r="I2" s="13">
+        <v>220817</v>
+      </c>
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
       <c r="L2" s="14"/>
@@ -1619,43 +1649,43 @@
         <v>16300</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3" s="15">
         <v>0.14027777777777778</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" s="15">
         <v>0.13055555555555556</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O3" s="15">
         <v>0.12708333333333333</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="15">
         <v>0.11944444444444445</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S3" s="15">
         <v>0.11527777777777777</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U3" s="15">
         <v>0.15902777777777777</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W3" s="15">
         <v>0.14652777777777778</v>
@@ -1666,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
@@ -1675,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="13">
         <v>2015</v>
@@ -1691,43 +1721,43 @@
         <v>22300</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K4" s="16">
         <v>0.15555555555555556</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M4" s="16">
         <v>0.13194444444444445</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O4" s="16">
         <v>0.13472222222222222</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="16">
         <v>0.15</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S4" s="16">
         <v>0.15138888888888888</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U4" s="16">
         <v>0.13263888888888889</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W4" s="16">
         <v>0.14097222222222222</v>
@@ -1763,31 +1793,31 @@
         <v>18600</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5" s="15">
         <v>0.14652777777777778</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5" s="15">
         <v>0.1451388888888889</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O5" s="15">
         <v>0.14791666666666667</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="15">
         <v>0.1451388888888889</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S5" s="15">
         <v>0.12638888888888888</v>
@@ -1802,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>16</v>
@@ -1811,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="13">
         <v>2014</v>
@@ -1827,7 +1857,7 @@
         <v>16300</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K6" s="16">
         <v>0.15347222222222223</v>
@@ -1850,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>16</v>
@@ -1859,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="13">
         <v>2021</v>
@@ -1875,37 +1905,37 @@
         <v>10400</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K7" s="16">
         <v>0.12638888888888888</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M7" s="16">
         <v>0.13958333333333334</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O7" s="16">
         <v>0.15347222222222223</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="16">
         <v>0.12569444444444444</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S7" s="16">
         <v>0.1277777777777778</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U7" s="16">
         <v>0.14652777777777778</v>
@@ -1949,31 +1979,31 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="15">
         <v>0.13541666666666666</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O8" s="15">
         <v>0.10833333333333334</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="15">
         <v>0.12361111111111112</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S8" s="15">
         <v>0.15347222222222223</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U8" s="15">
         <v>0.12361111111111112</v>
@@ -1986,7 +2016,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>16</v>
@@ -2011,7 +2041,7 @@
         <v>19300</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K9" s="16">
         <v>0.15416666666666667</v>
@@ -2034,16 +2064,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="13">
         <v>2016</v>
@@ -2059,43 +2089,43 @@
         <v>19300</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="15">
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M10" s="15">
         <v>0.15069444444444444</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O10" s="15">
         <v>0.16041666666666668</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="15">
         <v>0.15069444444444444</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S10" s="15">
         <v>0.15208333333333332</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U10" s="15">
         <v>0.1277777777777778</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W10" s="15">
         <v>0.14930555555555555</v>
@@ -2112,16 +2142,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="F11" s="13">
         <v>2015</v>
@@ -2137,43 +2167,43 @@
         <v>17800</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K11" s="15">
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O11" s="15">
         <v>0.16597222222222222</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="15">
         <v>0.16874999999999998</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S11" s="15">
         <v>0.17847222222222223</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U11" s="15">
         <v>0.16180555555555556</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="W11" s="15">
         <v>0.18263888888888891</v>
@@ -2185,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="13">
         <v>2022</v>
@@ -2210,31 +2240,31 @@
         <v>19300</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K12" s="16">
         <v>0.11458333333333333</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M12" s="16">
         <v>0.11458333333333333</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O12" s="16">
         <v>0.11458333333333333</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q12" s="16">
         <v>0.11458333333333333</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S12" s="16">
         <v>0.11458333333333333</v>
@@ -2249,16 +2279,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="13">
         <v>2019</v>
@@ -2274,25 +2304,25 @@
         <v>12600</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M13" s="16">
         <v>0.13958333333333334</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O13" s="16">
         <v>0.12152777777777778</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="16">
         <v>0.125</v>
@@ -2304,13 +2334,13 @@
         <v>0.14791666666666667</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U13" s="16">
         <v>0.13055555555555556</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W13" s="16">
         <v>0.13680555555555554</v>
@@ -2322,13 +2352,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>9</v>
@@ -2347,10 +2377,10 @@
         <v>11900</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -2370,13 +2400,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>9</v>
@@ -2395,7 +2425,7 @@
         <v>17800</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K15" s="16">
         <v>0.12291666666666667</v>
@@ -2418,16 +2448,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="13">
         <v>2016</v>
@@ -2443,19 +2473,19 @@
         <v>15600</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K16" s="15">
         <v>0.13749999999999998</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" s="15">
         <v>0.16041666666666668</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O16" s="15">
         <v>0.14791666666666667</v>
@@ -2474,16 +2504,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17" s="13">
         <v>2020</v>
@@ -2499,7 +2529,7 @@
         <v>16300</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K17" s="16">
         <v>0.12638888888888888</v>
@@ -2522,16 +2552,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="13">
         <v>2019</v>
@@ -2547,37 +2577,37 @@
         <v>16300</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K18" s="16">
         <v>0.14375000000000002</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M18" s="16">
         <v>0.12361111111111112</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O18" s="16">
         <v>0.13055555555555556</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="16">
         <v>0.13541666666666666</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S18" s="16">
         <v>0.13333333333333333</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U18" s="16">
         <v>0.15069444444444444</v>
@@ -2590,16 +2620,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" s="13">
         <v>2017</v>
@@ -2615,37 +2645,37 @@
         <v>25200</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K19" s="16">
         <v>0.13680555555555554</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M19" s="16">
         <v>0.13333333333333333</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O19" s="16">
         <v>0.15208333333333332</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="16">
         <v>0.1388888888888889</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S19" s="16">
         <v>0.12222222222222223</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U19" s="16">
         <v>0.14305555555555557</v>
@@ -2658,16 +2688,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F20" s="13">
         <v>2021</v>
@@ -2683,37 +2713,37 @@
         <v>17800</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K20" s="16">
         <v>0.14652777777777778</v>
       </c>
       <c r="L20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="O20" s="16">
         <v>0.11388888888888889</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="16">
         <v>0.10277777777777779</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S20" s="16">
         <v>0.11597222222222221</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U20" s="16">
         <v>0.12083333333333333</v>
@@ -2726,16 +2756,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="13">
         <v>2022</v>
@@ -2751,13 +2781,13 @@
         <v>14900</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K21" s="15">
         <v>0.12361111111111112</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M21" s="15">
         <v>0.14375000000000002</v>
@@ -2778,16 +2808,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="13">
         <v>2021</v>
@@ -2803,13 +2833,13 @@
         <v>14900</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K22" s="16">
         <v>0.12361111111111112</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M22" s="16">
         <v>0.1423611111111111</v>
@@ -2830,16 +2860,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="13">
         <v>2020</v>
@@ -2855,7 +2885,7 @@
         <v>26700</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K23" s="15">
         <v>0.1423611111111111</v>
@@ -2878,16 +2908,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F24" s="13">
         <v>2021</v>
@@ -2903,37 +2933,37 @@
         <v>14100</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K24" s="16">
         <v>0.12222222222222223</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M24" s="16">
         <v>0.13749999999999998</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O24" s="16">
         <v>0.13958333333333334</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="16">
         <v>0.12361111111111112</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S24" s="16">
         <v>0.12638888888888888</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U24" s="16">
         <v>0.13263888888888889</v>
@@ -2946,16 +2976,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" s="13">
         <v>2022</v>
@@ -2971,43 +3001,43 @@
         <v>16300</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K25" s="16">
         <v>0.12152777777777778</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M25" s="16">
         <v>0.10069444444444443</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O25" s="16">
         <v>0.12847222222222224</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="16">
         <v>0.14027777777777778</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S25" s="16">
         <v>0.15208333333333332</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U25" s="16">
         <v>0.14583333333333334</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W25" s="16">
         <v>0.11944444444444445</v>
@@ -3018,16 +3048,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" s="13">
         <v>2014</v>
@@ -3043,43 +3073,43 @@
         <v>14100</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K26" s="15">
         <v>0.14861111111111111</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M26" s="15">
         <v>0.125</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O26" s="15">
         <v>0.16250000000000001</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="15">
         <v>0.1673611111111111</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S26" s="15">
         <v>0.1361111111111111</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U26" s="15">
         <v>0.16458333333333333</v>
       </c>
       <c r="V26" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W26" s="15">
         <v>0.15902777777777777</v>
@@ -3090,16 +3120,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F27" s="13">
         <v>2019</v>
@@ -3115,37 +3145,37 @@
         <v>17800</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K27" s="16">
         <v>0.16041666666666668</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M27" s="16">
         <v>0.16041666666666668</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O27" s="16">
         <v>0.15069444444444444</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q27" s="16">
         <v>0.20902777777777778</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S27" s="16">
         <v>0.18194444444444444</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U27" s="16">
         <v>0.17916666666666667</v>
@@ -3158,16 +3188,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F28" s="13">
         <v>2021</v>
@@ -3183,43 +3213,43 @@
         <v>17800</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K28" s="16">
         <v>0.14861111111111111</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M28" s="16">
         <v>0.13055555555555556</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O28" s="16">
         <v>0.13402777777777777</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q28" s="16">
         <v>0.22500000000000001</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S28" s="16">
         <v>0.13541666666666666</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U28" s="16">
         <v>0.13194444444444445</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="W28" s="16">
         <v>9.7222222222222224E-2</v>
@@ -3230,16 +3260,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" s="13">
         <v>2020</v>
@@ -3255,43 +3285,43 @@
         <v>16300</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K29" s="15">
         <v>0.12708333333333333</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M29" s="15">
         <v>0.16597222222222222</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O29" s="15">
         <v>0.15277777777777776</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="15">
         <v>0.1423611111111111</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S29" s="15">
         <v>0.12638888888888888</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U29" s="15">
         <v>0.1361111111111111</v>
       </c>
       <c r="V29" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W29" s="15">
         <v>0.1277777777777778</v>
@@ -3302,16 +3332,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F30" s="13">
         <v>2022</v>
@@ -3327,37 +3357,37 @@
         <v>21500</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K30" s="16">
         <v>0.15</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M30" s="16">
         <v>0.13958333333333334</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O30" s="16">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="16">
         <v>0.15208333333333332</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S30" s="16">
         <v>0.14375000000000002</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U30" s="16">
         <v>0.12291666666666667</v>
@@ -3370,16 +3400,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F31" s="13">
         <v>2019</v>
@@ -3395,43 +3425,43 @@
         <v>18300</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K31" s="16">
         <v>0.15138888888888888</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M31" s="16">
         <v>0.14861111111111111</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O31" s="16">
         <v>0.15277777777777776</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="16">
         <v>0.14583333333333334</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S31" s="16">
         <v>0.15277777777777776</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U31" s="16">
         <v>0.15</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W31" s="16">
         <v>0.13958333333333334</v>

--- a/data/album.xlsx
+++ b/data/album.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7304F68A-9E47-F941-AF00-926CB5AF40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A994BC22-B386-A94B-AC16-9DE4BE71C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
   </bookViews>
@@ -965,6 +965,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1084,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,6 +1173,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1490,14 +1505,14 @@
   <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="31" customWidth="1"/>
     <col min="8" max="9" width="18.33203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1518,10 +1533,10 @@
       <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1592,10 +1607,10 @@
       <c r="E2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="30">
         <v>2022</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="30">
         <v>8</v>
       </c>
       <c r="H2" s="13">
@@ -1635,10 +1650,10 @@
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="30">
         <v>2022</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="30">
         <v>8</v>
       </c>
       <c r="H3" s="17">
@@ -1707,10 +1722,10 @@
       <c r="E4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="30">
         <v>2015</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="30">
         <v>8</v>
       </c>
       <c r="H4" s="17">
@@ -1779,10 +1794,10 @@
       <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="30">
         <v>2022</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="30">
         <v>3</v>
       </c>
       <c r="H5" s="17">
@@ -1843,10 +1858,10 @@
       <c r="E6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="30">
         <v>2014</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="30">
         <v>8</v>
       </c>
       <c r="H6" s="17">
@@ -1891,10 +1906,10 @@
       <c r="E7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="30">
         <v>2021</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="30">
         <v>8</v>
       </c>
       <c r="H7" s="17">
@@ -1959,10 +1974,10 @@
       <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="30">
         <v>2022</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="30">
         <v>7</v>
       </c>
       <c r="H8" s="17">
@@ -2027,10 +2042,10 @@
       <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="30">
         <v>2021</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="30">
         <v>5</v>
       </c>
       <c r="H9" s="17">
@@ -2075,10 +2090,10 @@
       <c r="E10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="30">
         <v>2016</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="30">
         <v>10</v>
       </c>
       <c r="H10" s="17">
@@ -2153,10 +2168,10 @@
       <c r="E11" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="30">
         <v>2015</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="30">
         <v>11</v>
       </c>
       <c r="H11" s="17">
@@ -2226,10 +2241,10 @@
       <c r="E12" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="30">
         <v>2022</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="30">
         <v>5</v>
       </c>
       <c r="H12" s="17">
@@ -2290,10 +2305,10 @@
       <c r="E13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="30">
         <v>2019</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="30">
         <v>9</v>
       </c>
       <c r="H13" s="17">
@@ -2363,10 +2378,10 @@
       <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="30">
         <v>2019</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="30">
         <v>8</v>
       </c>
       <c r="H14" s="17">
@@ -2411,10 +2426,10 @@
       <c r="E15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="30">
         <v>2022</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="30">
         <v>4</v>
       </c>
       <c r="H15" s="17">
@@ -2459,10 +2474,10 @@
       <c r="E16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="30">
         <v>2016</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="30">
         <v>11</v>
       </c>
       <c r="H16" s="17">
@@ -2515,10 +2530,10 @@
       <c r="E17" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="30">
         <v>2020</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="30">
         <v>6</v>
       </c>
       <c r="H17" s="17">
@@ -2563,10 +2578,10 @@
       <c r="E18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="30">
         <v>2019</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="30">
         <v>9</v>
       </c>
       <c r="H18" s="17">
@@ -2631,10 +2646,10 @@
       <c r="E19" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="30">
         <v>2017</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="30">
         <v>5</v>
       </c>
       <c r="H19" s="17">
@@ -2699,10 +2714,10 @@
       <c r="E20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="30">
         <v>2021</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="30">
         <v>6</v>
       </c>
       <c r="H20" s="17">
@@ -2767,10 +2782,10 @@
       <c r="E21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="30">
         <v>2022</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="30">
         <v>4</v>
       </c>
       <c r="H21" s="17">
@@ -2819,10 +2834,10 @@
       <c r="E22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="30">
         <v>2021</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="30">
         <v>12</v>
       </c>
       <c r="H22" s="17">
@@ -2871,10 +2886,10 @@
       <c r="E23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="30">
         <v>2020</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="30">
         <v>7</v>
       </c>
       <c r="H23" s="17">
@@ -2919,10 +2934,10 @@
       <c r="E24" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="30">
         <v>2021</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="17">
@@ -2987,10 +3002,10 @@
       <c r="E25" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="30">
         <v>2022</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="30">
         <v>3</v>
       </c>
       <c r="H25" s="17">
@@ -3059,10 +3074,10 @@
       <c r="E26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="30">
         <v>2014</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="30">
         <v>5</v>
       </c>
       <c r="H26" s="17">
@@ -3131,10 +3146,10 @@
       <c r="E27" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="30">
         <v>2019</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="30">
         <v>11</v>
       </c>
       <c r="H27" s="17">
@@ -3199,10 +3214,10 @@
       <c r="E28" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="30">
         <v>2021</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="30">
         <v>3</v>
       </c>
       <c r="H28" s="17">
@@ -3271,10 +3286,10 @@
       <c r="E29" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="30">
         <v>2020</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="30">
         <v>11</v>
       </c>
       <c r="H29" s="17">
@@ -3343,10 +3358,10 @@
       <c r="E30" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="30">
         <v>2022</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="30">
         <v>4</v>
       </c>
       <c r="H30" s="17">
@@ -3411,10 +3426,10 @@
       <c r="E31" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="30">
         <v>2019</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="30">
         <v>10</v>
       </c>
       <c r="H31" s="17">
@@ -3499,8 +3514,8 @@
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="2:17">

--- a/data/album.xlsx
+++ b/data/album.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A994BC22-B386-A94B-AC16-9DE4BE71C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86476672-E787-964E-8ABF-30D1A7F278AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
+    <workbookView xWindow="14560" yWindow="500" windowWidth="14240" windowHeight="15720" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
   </bookViews>
   <sheets>
     <sheet name="Album" sheetId="2" r:id="rId1"/>
@@ -1505,7 +1505,7 @@
   <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>

--- a/data/album.xlsx
+++ b/data/album.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/Duckku_be/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED1AF50-E502-8049-908E-DA8A11E08153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86476672-E787-964E-8ABF-30D1A7F278AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
+    <workbookView xWindow="14560" yWindow="500" windowWidth="14240" windowHeight="15720" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
   </bookViews>
   <sheets>
     <sheet name="Album" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="225">
   <si>
     <t>소녀시대</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>응모권 포함 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응모권 포함 X 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>발매월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,27 +109,855 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수록곡목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응모권포함가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응모권미포함가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 아, 아,아,앙,앙,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킼,킼,킼,ㅋㅋ,3ㅣㅇ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅁㄹ.ㅁㄴㅇ,ㄹㅇ,ㄹㄹㅇ,ㅇㄹ</t>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록곡7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackPink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(G)I-DLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONSTA X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세븐틴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Twice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forever 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seventeen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky Like That</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You Better Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mood Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feel My Rhythm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rainbow Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beg For Me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAMBOLEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good,Bad,Ugly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비불(Illusion)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life's Too Short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICU(쉬어가도 돼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life's Too Short (english ver.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro : Boy Meets Evil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피 땀 눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규 2집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQUARE TOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JYP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타쉽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feel Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOVE DIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'M THE TREND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃갈피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fatal Love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불장난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘파람&lt;Acoustic Ver.&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 2집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 9집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 3집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 1집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리메이크 1집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규 3집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Loud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trick It</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love Foolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROYAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i'M THE TREND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 옛날이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐에로는 우릴 보고 웃지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑이 지나가면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너의 의미(feat. 김창완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름밤의 꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿍따리 샤바라(feat. 클론)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love Killa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thriller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guess Who</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nobody Else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEASTMODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대동단결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 (Happiness)</t>
+  </si>
+  <si>
+    <t>미니 6집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queendom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knock On Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better Be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pushin' N Pullin'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시, 여름(Hello, Suset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Level</t>
+  </si>
+  <si>
+    <t>Next Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화양연화 pt2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 4집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro: Never Mind</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Whalien 52</t>
+  </si>
+  <si>
+    <t>Ma City</t>
+  </si>
+  <si>
+    <t>뱁새</t>
+  </si>
+  <si>
+    <t>Skit: One Night in a Strange City</t>
+  </si>
+  <si>
+    <t>3;57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUTTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 싱글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>An Ode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓말을 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 : Fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me hear you say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back it up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darl+ing</t>
+  </si>
+  <si>
+    <t>How You Like That</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선공개 싱글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루에 세 번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONLY 너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLD ME TIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EYE EYE EYES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOMEONE LIKE ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taste of Love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 12집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcohol-Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scandal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conversation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baby Blue Love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take It</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한(寒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화(火花)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where is love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAHLIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I NEVER DIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정규 1집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOMBOY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말리지 마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAIN DIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALREADY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLAROID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESCAPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love Poem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 5집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간의 바깥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자장가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love poem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LILAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규 5집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라일락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 안녕 봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celebrity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌림노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 컵(Empty Cup)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHAPE of LOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 11집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burning Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breathe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wildfire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lion Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You Think</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어떤 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowGirls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk Talk </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Butter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Hotter Remix)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Butter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Sweeter Remix)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Butter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Cooler Remix)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Butter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Instrumental)</t>
+    </r>
+  </si>
+  <si>
+    <t>'FOLLOW' : FIND YOU </t>
+  </si>
+  <si>
+    <t>미니 7집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsta Truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burn it up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 앨범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멋쟁이사자처럼 인하대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃닫고입올려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +965,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +1010,57 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF373A3C"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,30 +1079,118 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,359 +1502,2155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DD0742-5A26-3F44-A099-EABDA47F10C9}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="31" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="19">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G2" s="30">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13">
+        <v>220817</v>
+      </c>
+      <c r="I2" s="13">
+        <v>220817</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="15"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="30">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17">
+        <f>I3+3000</f>
+        <v>19300</v>
+      </c>
+      <c r="I3" s="17">
+        <v>16300</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="15">
+        <v>0.14652777777777778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="30">
+        <v>2015</v>
+      </c>
+      <c r="G4" s="30">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17">
+        <f>SUM(I4,3000)</f>
+        <v>25300</v>
+      </c>
+      <c r="I4" s="17">
+        <v>22300</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="W4" s="16">
+        <v>0.14097222222222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G5" s="30">
+        <v>3</v>
+      </c>
+      <c r="H5" s="17">
+        <f>SUM(I5,3000)</f>
+        <v>21600</v>
+      </c>
+      <c r="I5" s="17">
+        <v>18600</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="30">
+        <v>2014</v>
+      </c>
+      <c r="G6" s="30">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17">
+        <f>SUM(I6,3000)</f>
+        <v>19300</v>
+      </c>
+      <c r="I6" s="17">
+        <v>16300</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="30">
+        <v>8</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" ref="H7:H31" si="0">SUM(I7,3000)</f>
+        <v>13400</v>
+      </c>
+      <c r="I7" s="17">
+        <v>10400</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G8" s="30">
+        <v>7</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+      <c r="I8" s="17">
+        <v>18600</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="30">
+        <v>5</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>22300</v>
+      </c>
+      <c r="I9" s="17">
+        <v>19300</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2016</v>
+      </c>
+      <c r="G10" s="30">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>22300</v>
+      </c>
+      <c r="I10" s="17">
+        <v>19300</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="15">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="30">
+        <v>2015</v>
+      </c>
+      <c r="G11" s="30">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I11" s="18">
+        <v>17800</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="15">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0.16874999999999998</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="30">
+        <v>5</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>22300</v>
+      </c>
+      <c r="I12" s="19">
+        <v>19300</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="30">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="I13" s="19">
+        <v>12600</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="R13" s="13">
+        <v>247</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2019</v>
+      </c>
+      <c r="G14" s="30">
+        <v>8</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>14900</v>
+      </c>
+      <c r="I14" s="4">
+        <v>11900</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="30">
+        <v>4</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I15" s="4">
+        <v>17800</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="30">
+        <v>2016</v>
+      </c>
+      <c r="G16" s="30">
+        <v>11</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>18600</v>
+      </c>
+      <c r="I16" s="4">
+        <v>15600</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="30">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="30">
+        <v>6</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>19300</v>
+      </c>
+      <c r="I17" s="4">
+        <v>16300</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="30">
+        <v>2019</v>
+      </c>
+      <c r="G18" s="30">
+        <v>9</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>19300</v>
+      </c>
+      <c r="I18" s="4">
+        <v>16300</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" s="16">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="30">
+        <v>2017</v>
+      </c>
+      <c r="G19" s="30">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>28200</v>
+      </c>
+      <c r="I19" s="4">
+        <v>25200</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0.14305555555555557</v>
+      </c>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="30">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="30">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I20" s="4">
+        <v>17800</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="30">
         <v>2022</v>
       </c>
-      <c r="F2" s="2">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>23423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="G21" s="30">
+        <v>4</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>17900</v>
+      </c>
+      <c r="I21" s="4">
+        <v>14900</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="30">
+        <v>2021</v>
+      </c>
+      <c r="G22" s="30">
+        <v>12</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="0"/>
+        <v>17900</v>
+      </c>
+      <c r="I22" s="4">
+        <v>14900</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="30">
+        <v>2020</v>
+      </c>
+      <c r="G23" s="30">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="H23" s="17">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+      <c r="I23" s="4">
+        <v>26700</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="30">
+        <v>2021</v>
+      </c>
+      <c r="G24" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H24" s="17">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+      <c r="I24" s="4">
+        <v>14100</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G25" s="30">
+        <v>3</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>19300</v>
+      </c>
+      <c r="I25" s="4">
+        <v>16300</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" s="16">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0.11944444444444445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="30">
+        <v>2014</v>
+      </c>
+      <c r="G26" s="30">
+        <v>5</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+      <c r="I26" s="4">
+        <v>14100</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0.15902777777777777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="30">
+        <v>2019</v>
+      </c>
+      <c r="G27" s="30">
+        <v>11</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I27" s="4">
+        <v>17800</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="30">
+        <v>2021</v>
+      </c>
+      <c r="G28" s="30">
+        <v>3</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="I28" s="22">
+        <v>17800</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="W28" s="16">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="30">
+        <v>2020</v>
+      </c>
+      <c r="G29" s="30">
+        <v>11</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="0"/>
+        <v>19300</v>
+      </c>
+      <c r="I29" s="22">
+        <v>16300</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W29" s="15">
+        <v>0.1277777777777778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G30" s="30">
+        <v>4</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="0"/>
+        <v>24500</v>
+      </c>
+      <c r="I30" s="22">
+        <v>21500</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" s="16">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="30">
+        <v>2019</v>
+      </c>
+      <c r="G31" s="30">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>345345</v>
-      </c>
-      <c r="I3" s="2">
-        <v>346364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2">
-        <v>123123</v>
-      </c>
-      <c r="I4" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="C39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="C40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="C41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="C42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="C43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="C44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="H31" s="17">
+        <f t="shared" si="0"/>
+        <v>21300</v>
+      </c>
+      <c r="I31" s="20">
+        <v>18300</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="W31" s="16">
+        <v>0.13958333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="2"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="I44" s="10"/>
+      <c r="M44" s="17"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="I45" s="11"/>
+      <c r="M45" s="17"/>
+      <c r="O45" s="23"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="I46" s="9"/>
+      <c r="M46" s="17"/>
+      <c r="O46" s="23"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="I47" s="7"/>
+      <c r="M47" s="17"/>
+      <c r="O47" s="23"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="I48" s="7"/>
+      <c r="M48" s="17"/>
+      <c r="O48" s="23"/>
+    </row>
+    <row r="49" spans="9:15">
+      <c r="I49" s="10"/>
+      <c r="M49" s="17"/>
+      <c r="O49" s="23"/>
+    </row>
+    <row r="50" spans="9:15">
+      <c r="I50" s="11"/>
+      <c r="M50" s="17"/>
+      <c r="O50" s="23"/>
+    </row>
+    <row r="51" spans="9:15">
+      <c r="M51" s="18"/>
+      <c r="O51" s="23"/>
+    </row>
+    <row r="52" spans="9:15">
+      <c r="M52" s="19"/>
+      <c r="O52" s="23"/>
+    </row>
+    <row r="53" spans="9:15">
+      <c r="M53" s="19"/>
+      <c r="O53" s="23"/>
+    </row>
+    <row r="54" spans="9:15">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="9:15">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="9:15">
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="9:15">
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="9:15">
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="9:15">
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="9:15">
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="9:15">
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="9:15">
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="9:15">
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="9:15">
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="13:15">
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="13:15">
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="13:15">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="13:15">
+      <c r="M68" s="22"/>
+      <c r="O68" s="23"/>
+    </row>
+    <row r="69" spans="13:15">
+      <c r="M69" s="22"/>
+      <c r="O69" s="23"/>
+    </row>
+    <row r="70" spans="13:15">
+      <c r="M70" s="22"/>
+      <c r="O70" s="23"/>
+    </row>
+    <row r="71" spans="13:15">
+      <c r="M71" s="20"/>
+      <c r="O71" s="23"/>
+    </row>
+    <row r="72" spans="13:15">
+      <c r="M72" s="23"/>
+      <c r="O72" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" tooltip="행복 (Happiness)" display="https://namu.wiki/w/%ED%96%89%EB%B3%B5 (Happiness)" xr:uid="{761B7EAC-1141-4052-A12E-D487DAF96A95}"/>
+    <hyperlink ref="J11" r:id="rId2" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+intro:+never+mind&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw08wz8rLis_O0RLOTrfRzS4szk_UTc5JKc62K8_PSixexKr7esPJtc8ubtp7XrS2vu1coZOaVFOVbKeSllqUWKeRm5qUAAEVk2rpbAAAA&amp;sa=X&amp;ved=2ahUKEwi1sMa89c_5AhXNUN4KHULkDSkQri56BAhOEAM" xr:uid="{298114B5-178F-4267-B575-E124DFFCD972}"/>
+    <hyperlink ref="L11" r:id="rId3" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+run&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0w0rDbJMzQu1RLOTrfRzS4szk_UTc5JKc62K8_PSixexCr_esPJtc8ubtp7XrS2vu1coFJXmAQBqsopLTQAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAY" xr:uid="{A2B30CD4-636A-4EDE-A96C-693BC3BE18AA}"/>
+    <hyperlink ref="M11" r:id="rId4" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+run&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0w0rDbJMzQu1RLOTrfRzS4szk_UTc5JKc62K8_PSixexCr_esPJtc8ubtp7XrS2vu1coFJXmAQBqsopLTQAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAY" xr:uid="{8014445D-0704-47C4-81AB-8EA9D387FBEE}"/>
+    <hyperlink ref="N11" r:id="rId5" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+butterfly&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNjZMzDJK1RLOTrfRzS4szk_UTc5JKc62K8_PSixexSr7esPJtc8ubtp7XrS2vu1coJJWWlKQWpeVUAgCyhkaMUwAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAk" xr:uid="{40F9F350-45BD-4DB7-80B1-9F531BEE76D6}"/>
+    <hyperlink ref="O11" r:id="rId6" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+butterfly&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNjZMzDJK1RLOTrfRzS4szk_UTc5JKc62K8_PSixexSr7esPJtc8ubtp7XrS2vu1coJJWWlKQWpeVUAgCyhkaMUwAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAk" xr:uid="{03720614-8AC5-44FB-A15E-00E55E88C512}"/>
+    <hyperlink ref="P11" r:id="rId7" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+whalien+52&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNTQozqlK0RLOTrfRzS4szk_UTc5JKc62K8_PSixexSr3esPJtc8ubtp7XrS2vu1colGck5mSm5imYGgEAVpUSg1QAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAw" xr:uid="{A5111762-60B9-44F3-821E-F4E52C8F3433}"/>
+    <hyperlink ref="Q11" r:id="rId8" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+whalien+52&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNTQozqlK0RLOTrfRzS4szk_UTc5JKc62K8_PSixexSr3esPJtc8ubtp7XrS2vu1colGck5mSm5imYGgEAVpUSg1QAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEAw" xr:uid="{33BD41CE-DB75-47EF-B437-BA00FD1B84C0}"/>
+    <hyperlink ref="R11" r:id="rId9" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+ma+city&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw08yzLLPLyzK0RLOTrfRzS4szk_UTc5JKc62K8_PSixexir_esPJtc8ubtp7XrS2vu1co5CYqJGeWVAIAmABro1EAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEA8" xr:uid="{8B36D6FC-D82F-4C20-8113-80A1B06B99E4}"/>
+    <hyperlink ref="S11" r:id="rId10" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+ma+city&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw08yzLLPLyzK0RLOTrfRzS4szk_UTc5JKc62K8_PSixexir_esPJtc8ubtp7XrS2vu1co5CYqJGeWVAIAmABro1EAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEA8" xr:uid="{85DD2E93-B840-4C4A-B121-1D8BCBCFB654}"/>
+    <hyperlink ref="T11" r:id="rId11" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+%EB%B1%81%EC%83%88&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0y0Li0syLOK1RLOTrfRzS4szk_UTc5JKc62K8_PSixexir3esPJtc8ubtp7XrS2vu1covN7Y-Ka5AwD8mYeqUAAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEBI" xr:uid="{A0899F8C-D128-40F1-8595-1797D9DBF676}"/>
+    <hyperlink ref="U11" r:id="rId12" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+%EB%B1%81%EC%83%88&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0y0Li0syLOK1RLOTrfRzS4szk_UTc5JKc62K8_PSixexir3esPJtc8ubtp7XrS2vu1covN7Y-Ka5AwD8mYeqUAAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEBI" xr:uid="{4E1FE392-B3B6-42CB-915D-4B762DDE5B27}"/>
+    <hyperlink ref="V11" r:id="rId13" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+skit:+one+night+in+a+strange+city&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNTQyyTUu0RLOTrfRzS4szk_UTc5JKc62K8_PSixexGr7esPJtc8ubtp7XrS2vu1coFGdnllgp5OelKuRlpmeUKGTmKSQqFJcUJealpyokZ5ZUAgBdi_7bawAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEBU" xr:uid="{4459C905-30DD-4BE4-8200-4AE3CD1C9BD9}"/>
+    <hyperlink ref="W11" r:id="rId14" display="https://www.google.com/search?cs=0&amp;q=%EB%B0%A9%ED%83%84%EC%86%8C%EB%85%84%EB%8B%A8+skit:+one+night+in+a+strange+city&amp;stick=H4sIAAAAAAAAAONgFuLVT9c3NEyqMDWzrEo3UYJw0ypNTQyyTUu0RLOTrfRzS4szk_UTc5JKc62K8_PSixexGr7esPJtc8ubtp7XrS2vu1coFGdnllgp5OelKuRlpmeUKGTmKSQqFJcUJealpyokZ5ZUAgBdi_7bawAAAA&amp;sa=X&amp;ved=2ahUKEwiRzOGw9s_5AhXE_GEKHemrCPsQri56BAgJEBU" xr:uid="{21A987F4-0B3D-4541-B5E3-DFFA806CD74E}"/>
+    <hyperlink ref="J15" r:id="rId15" location="s-2.1" tooltip="Darl+ing" display="https://namu.wiki/w/Darl%2Bing - s-2.1" xr:uid="{52C36555-3618-4CB2-8412-E78858AD3F10}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/album.xlsx
+++ b/data/album.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/newduckku/Duckku-be/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5E0E7-2CB4-E44C-8E65-07EFCD909601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD18B3-F03C-2343-9BC9-F5ECE5288952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14560" yWindow="500" windowWidth="14240" windowHeight="15720" xr2:uid="{73B7E36D-0F13-4B41-82B2-EB9116E34230}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="231">
   <si>
     <t>소녀시대</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,31 +145,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BlackPink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(G)I-DLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이유</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MONSTA X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세븐틴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Twice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -965,17 +945,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITZY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Not Shy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITZY</t>
-  </si>
-  <si>
     <t>미니 3집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,7 +960,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33ㄴ</t>
+    <t>블랙핑크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트와이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터엑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +991,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,6 +1084,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Apple SD Gothic Neo Regular"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1117,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,6 +1209,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1528,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DD0742-5A26-3F44-A099-EABDA47F10C9}">
   <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -1573,43 +1575,43 @@
         <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -1620,16 +1622,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F2" s="28">
         <v>2022</v>
@@ -1688,43 +1690,43 @@
         <v>16300</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K3" s="15">
         <v>0.14027777777777778</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M3" s="15">
         <v>0.13055555555555556</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O3" s="15">
         <v>0.12708333333333333</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="15">
         <v>0.11944444444444445</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S3" s="15">
         <v>0.11527777777777777</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U3" s="15">
         <v>0.15902777777777777</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W3" s="15">
         <v>0.14652777777777778</v>
@@ -1735,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
@@ -1744,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F4" s="28">
         <v>2015</v>
@@ -1760,43 +1762,43 @@
         <v>22300</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K4" s="16">
         <v>0.15555555555555556</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M4" s="16">
         <v>0.13194444444444445</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O4" s="16">
         <v>0.13472222222222222</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="16">
         <v>0.15</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S4" s="16">
         <v>0.15138888888888888</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="U4" s="16">
         <v>0.13263888888888889</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W4" s="16">
         <v>0.14097222222222222</v>
@@ -1832,31 +1834,31 @@
         <v>18600</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K5" s="15">
         <v>0.14652777777777778</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M5" s="15">
         <v>0.1451388888888889</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O5" s="15">
         <v>0.14791666666666667</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="15">
         <v>0.1451388888888889</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S5" s="15">
         <v>0.12638888888888888</v>
@@ -1871,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>16</v>
@@ -1880,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F6" s="28">
         <v>2014</v>
@@ -1896,7 +1898,7 @@
         <v>16300</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K6" s="16">
         <v>0.15347222222222223</v>
@@ -1919,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>16</v>
@@ -1928,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F7" s="28">
         <v>2021</v>
@@ -1944,37 +1946,37 @@
         <v>10400</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K7" s="16">
         <v>0.12638888888888888</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M7" s="16">
         <v>0.13958333333333334</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O7" s="16">
         <v>0.15347222222222223</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="16">
         <v>0.12569444444444444</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="S7" s="16">
         <v>0.1277777777777778</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="U7" s="16">
         <v>0.14652777777777778</v>
@@ -2018,31 +2020,31 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="15">
         <v>0.13541666666666666</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O8" s="15">
         <v>0.10833333333333334</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="15">
         <v>0.12361111111111112</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="S8" s="15">
         <v>0.15347222222222223</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U8" s="15">
         <v>0.12361111111111112</v>
@@ -2055,7 +2057,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>16</v>
@@ -2080,7 +2082,7 @@
         <v>19300</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K9" s="16">
         <v>0.15416666666666667</v>
@@ -2103,16 +2105,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F10" s="28">
         <v>2016</v>
@@ -2128,43 +2130,43 @@
         <v>19300</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K10" s="15">
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M10" s="15">
         <v>0.15069444444444444</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O10" s="15">
         <v>0.16041666666666668</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="15">
         <v>0.15069444444444444</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S10" s="15">
         <v>0.15208333333333332</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U10" s="15">
         <v>0.1277777777777778</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="W10" s="15">
         <v>0.14930555555555555</v>
@@ -2181,16 +2183,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F11" s="28">
         <v>2015</v>
@@ -2206,43 +2208,43 @@
         <v>17800</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K11" s="15">
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O11" s="15">
         <v>0.16597222222222222</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="15">
         <v>0.16874999999999998</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S11" s="15">
         <v>0.17847222222222223</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="U11" s="15">
         <v>0.16180555555555556</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="W11" s="15">
         <v>0.18263888888888891</v>
@@ -2254,16 +2256,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F12" s="28">
         <v>2022</v>
@@ -2279,31 +2281,31 @@
         <v>19300</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K12" s="16">
         <v>0.11458333333333333</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M12" s="16">
         <v>0.11458333333333333</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O12" s="16">
         <v>0.11458333333333333</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q12" s="16">
         <v>0.11458333333333333</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="S12" s="16">
         <v>0.11458333333333333</v>
@@ -2318,16 +2320,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F13" s="28">
         <v>2019</v>
@@ -2343,25 +2345,25 @@
         <v>12600</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M13" s="16">
         <v>0.13958333333333334</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O13" s="16">
         <v>0.12152777777777778</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="16">
         <v>0.125</v>
@@ -2373,13 +2375,13 @@
         <v>0.14791666666666667</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="U13" s="16">
         <v>0.13055555555555556</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W13" s="16">
         <v>0.13680555555555554</v>
@@ -2391,13 +2393,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>9</v>
@@ -2416,10 +2418,10 @@
         <v>11900</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -2439,13 +2441,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>9</v>
@@ -2464,7 +2466,7 @@
         <v>17800</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K15" s="16">
         <v>0.12291666666666667</v>
@@ -2487,16 +2489,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F16" s="28">
         <v>2016</v>
@@ -2512,19 +2514,19 @@
         <v>15600</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K16" s="15">
         <v>0.13749999999999998</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M16" s="15">
         <v>0.16041666666666668</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O16" s="15">
         <v>0.14791666666666667</v>
@@ -2543,16 +2545,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F17" s="28">
         <v>2020</v>
@@ -2568,7 +2570,7 @@
         <v>16300</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K17" s="16">
         <v>0.12638888888888888</v>
@@ -2591,16 +2593,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F18" s="28">
         <v>2019</v>
@@ -2616,37 +2618,37 @@
         <v>16300</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K18" s="16">
         <v>0.14375000000000002</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M18" s="16">
         <v>0.12361111111111112</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O18" s="16">
         <v>0.13055555555555556</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="16">
         <v>0.13541666666666666</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S18" s="16">
         <v>0.13333333333333333</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U18" s="16">
         <v>0.15069444444444444</v>
@@ -2659,16 +2661,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F19" s="28">
         <v>2017</v>
@@ -2684,37 +2686,37 @@
         <v>25200</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K19" s="16">
         <v>0.13680555555555554</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M19" s="16">
         <v>0.13333333333333333</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O19" s="16">
         <v>0.15208333333333332</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="16">
         <v>0.1388888888888889</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="S19" s="16">
         <v>0.12222222222222223</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="U19" s="16">
         <v>0.14305555555555557</v>
@@ -2727,16 +2729,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F20" s="28">
         <v>2021</v>
@@ -2752,37 +2754,37 @@
         <v>17800</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K20" s="16">
         <v>0.14652777777777778</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O20" s="16">
         <v>0.11388888888888889</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="16">
         <v>0.10277777777777779</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S20" s="16">
         <v>0.11597222222222221</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U20" s="16">
         <v>0.12083333333333333</v>
@@ -2795,16 +2797,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F21" s="28">
         <v>2022</v>
@@ -2820,13 +2822,13 @@
         <v>14900</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K21" s="15">
         <v>0.12361111111111112</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M21" s="15">
         <v>0.14375000000000002</v>
@@ -2847,16 +2849,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F22" s="28">
         <v>2021</v>
@@ -2872,13 +2874,13 @@
         <v>14900</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K22" s="16">
         <v>0.12361111111111112</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M22" s="16">
         <v>0.1423611111111111</v>
@@ -2899,16 +2901,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F23" s="28">
         <v>2020</v>
@@ -2924,7 +2926,7 @@
         <v>26700</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K23" s="15">
         <v>0.1423611111111111</v>
@@ -2947,16 +2949,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F24" s="28">
         <v>2021</v>
@@ -2972,37 +2974,37 @@
         <v>14100</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K24" s="16">
         <v>0.12222222222222223</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M24" s="16">
         <v>0.13749999999999998</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O24" s="16">
         <v>0.13958333333333334</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="16">
         <v>0.12361111111111112</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="S24" s="16">
         <v>0.12638888888888888</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="U24" s="16">
         <v>0.13263888888888889</v>
@@ -3015,16 +3017,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F25" s="28">
         <v>2022</v>
@@ -3040,43 +3042,43 @@
         <v>16300</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K25" s="16">
         <v>0.12152777777777778</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M25" s="16">
         <v>0.10069444444444443</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O25" s="16">
         <v>0.12847222222222224</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="16">
         <v>0.14027777777777778</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="S25" s="16">
         <v>0.15208333333333332</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="U25" s="16">
         <v>0.14583333333333334</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="W25" s="16">
         <v>0.11944444444444445</v>
@@ -3087,16 +3089,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F26" s="28">
         <v>2014</v>
@@ -3112,43 +3114,43 @@
         <v>14100</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K26" s="15">
         <v>0.14861111111111111</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M26" s="15">
         <v>0.125</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O26" s="15">
         <v>0.16250000000000001</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="15">
         <v>0.1673611111111111</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S26" s="15">
         <v>0.1361111111111111</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="U26" s="15">
         <v>0.16458333333333333</v>
       </c>
       <c r="V26" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W26" s="15">
         <v>0.15902777777777777</v>
@@ -3159,16 +3161,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F27" s="28">
         <v>2019</v>
@@ -3184,37 +3186,37 @@
         <v>17800</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K27" s="16">
         <v>0.16041666666666668</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M27" s="16">
         <v>0.16041666666666668</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O27" s="16">
         <v>0.15069444444444444</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="16">
         <v>0.20902777777777778</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="S27" s="16">
         <v>0.18194444444444444</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="U27" s="16">
         <v>0.17916666666666667</v>
@@ -3227,16 +3229,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F28" s="28">
         <v>2021</v>
@@ -3252,43 +3254,43 @@
         <v>17800</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K28" s="16">
         <v>0.14861111111111111</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M28" s="16">
         <v>0.13055555555555556</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O28" s="16">
         <v>0.13402777777777777</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="16">
         <v>0.22500000000000001</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S28" s="16">
         <v>0.13541666666666666</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="U28" s="16">
         <v>0.13194444444444445</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W28" s="16">
         <v>9.7222222222222224E-2</v>
@@ -3299,16 +3301,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F29" s="28">
         <v>2020</v>
@@ -3324,43 +3326,43 @@
         <v>16300</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K29" s="15">
         <v>0.12708333333333333</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M29" s="15">
         <v>0.16597222222222222</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O29" s="15">
         <v>0.15277777777777776</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="15">
         <v>0.1423611111111111</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S29" s="15">
         <v>0.12638888888888888</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="U29" s="15">
         <v>0.1361111111111111</v>
       </c>
       <c r="V29" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="W29" s="15">
         <v>0.1277777777777778</v>
@@ -3371,16 +3373,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F30" s="28">
         <v>2022</v>
@@ -3396,37 +3398,37 @@
         <v>21500</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K30" s="16">
         <v>0.15</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M30" s="16">
         <v>0.13958333333333334</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O30" s="16">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="16">
         <v>0.15208333333333332</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S30" s="16">
         <v>0.14375000000000002</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="U30" s="16">
         <v>0.12291666666666667</v>
@@ -3439,16 +3441,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F31" s="28">
         <v>2019</v>
@@ -3464,43 +3466,43 @@
         <v>18300</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K31" s="16">
         <v>0.15138888888888888</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M31" s="16">
         <v>0.14861111111111111</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O31" s="16">
         <v>0.15277777777777776</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="16">
         <v>0.14583333333333334</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S31" s="16">
         <v>0.15277777777777776</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="U31" s="16">
         <v>0.15</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W31" s="16">
         <v>0.13958333333333334</v>
@@ -3511,16 +3513,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F32" s="1">
         <v>2022</v>
@@ -3541,16 +3543,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F33" s="1">
         <v>2020</v>
@@ -3567,20 +3569,20 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>232</v>
+      <c r="A34" s="1">
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F34" s="1">
         <v>2019</v>
